--- a/_static/global/workers_binary_re.xlsx
+++ b/_static/global/workers_binary_re.xlsx
@@ -2442,9 +2442,6 @@
     <t>matrices</t>
   </si>
   <si>
-    <t>matrices_rank</t>
-  </si>
-  <si>
     <t>re_rank</t>
   </si>
   <si>
@@ -2452,6 +2449,9 @@
   </si>
   <si>
     <t>re_range</t>
+  </si>
+  <si>
+    <t>mat_rank</t>
   </si>
 </sst>
 </file>
@@ -2843,7 +2843,7 @@
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CF1" sqref="CF1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="BU1" sqref="BU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3137,16 +3137,16 @@
         <v>69</v>
       </c>
       <c r="BU1" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="BV1" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BX1" s="7" t="s">
         <v>808</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.35">
